--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info_random[生物随机信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info_random[生物随机信息] .xlsx
@@ -62,7 +62,7 @@
     <t>骷髅</t>
   </si>
   <si>
-    <t>3040001-30400010,3050001-3050010,</t>
+    <t>3040001-3040010,3050001-3050010,</t>
   </si>
   <si>
     <t>史莱姆</t>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info_random[生物随机信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info_random[生物随机信息] .xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -56,7 +56,7 @@
     <t>人类</t>
   </si>
   <si>
-    <t>2010010-2010012,2010020,2010030,</t>
+    <t>2010001-2010013</t>
   </si>
   <si>
     <t>骷髅</t>
@@ -1039,10 +1039,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1105,35 +1105,68 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>3001</v>
+        <v>2002</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
+        <v>2003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>2004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>3001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
         <v>4001</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" ht="12" customHeight="1"/>
-    <row r="35" ht="12" customHeight="1"/>
-    <row r="36" ht="12" customHeight="1"/>
     <row r="37" ht="12" customHeight="1"/>
     <row r="38" ht="12" customHeight="1"/>
     <row r="39" ht="12" customHeight="1"/>
     <row r="40" ht="12" customHeight="1"/>
     <row r="41" ht="12" customHeight="1"/>
     <row r="42" ht="12" customHeight="1"/>
+    <row r="43" ht="12" customHeight="1"/>
+    <row r="44" ht="12" customHeight="1"/>
+    <row r="45" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:I88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info_random[生物随机信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info_random[生物随机信息] .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="18285" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfoRandom" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -53,6 +53,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>1030001-1030003,1050001-1050011,1060001-1060005</t>
+  </si>
+  <si>
     <t>人类</t>
   </si>
   <si>
@@ -68,10 +71,28 @@
     <t>史莱姆</t>
   </si>
   <si>
-    <t>4030001-4030005,4050001-4050010,4060001-4060010,4070001-4070005,4080001-4080002</t>
+    <t>4030001-4030010,4050001-4050010,4060001-4060010,4070001-4070010,4080001-4080004</t>
   </si>
   <si>
     <t>魅魔</t>
+  </si>
+  <si>
+    <t>5050001-5050011,5070001-5070005</t>
+  </si>
+  <si>
+    <t>牛头人</t>
+  </si>
+  <si>
+    <t>6050001-6050010,6060001-6060010</t>
+  </si>
+  <si>
+    <t>哥布林</t>
+  </si>
+  <si>
+    <t>7030001-7030002,7050001-7050005,7060001-7060005</t>
+  </si>
+  <si>
+    <t>兽人</t>
   </si>
 </sst>
 </file>
@@ -1042,12 +1063,12 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="161.5" customWidth="1"/>
+    <col min="2" max="2" width="88.25" customWidth="1"/>
     <col min="3" max="3" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1088,8 +1109,11 @@
       <c r="A4">
         <v>1001</v>
       </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1097,10 +1121,10 @@
         <v>2001</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1108,10 +1132,10 @@
         <v>2002</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1119,10 +1143,10 @@
         <v>2003</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1130,10 +1154,10 @@
         <v>2004</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1141,10 +1165,10 @@
         <v>3001</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1152,10 +1176,43 @@
         <v>4001</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>5001</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>6001</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>7001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="12" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info_random[生物随机信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info_random[生物随机信息] .xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18285" windowHeight="12855"/>
+    <workbookView windowWidth="25035" windowHeight="8640"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfoRandom" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -53,13 +53,19 @@
     <t>备注</t>
   </si>
   <si>
-    <t>1030001-1030003,1050001-1050011,1060001-1060005</t>
+    <t>1030001-1030003,1040001-1040002,1050001-1050011,1060001-1060005</t>
+  </si>
+  <si>
+    <t>角色创建-人类</t>
+  </si>
+  <si>
+    <t>2010001-2010013</t>
+  </si>
+  <si>
+    <t>角色创建-骷髅</t>
   </si>
   <si>
     <t>人类</t>
-  </si>
-  <si>
-    <t>2010001-2010013</t>
   </si>
   <si>
     <t>骷髅</t>
@@ -771,6 +777,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1063,7 +1076,7 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1107,7 +1120,7 @@
     </row>
     <row r="4" customFormat="1" spans="1:3">
       <c r="A4">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1116,9 +1129,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" customFormat="1" spans="1:3">
       <c r="A5">
-        <v>2001</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1127,45 +1140,45 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" customFormat="1" spans="1:3">
       <c r="A6">
-        <v>2002</v>
+        <v>1001</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>3001</v>
+        <v>2003</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -1173,46 +1186,68 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>4001</v>
+        <v>2004</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>5001</v>
+        <v>3001</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>6001</v>
+        <v>4001</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
+        <v>5001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>6001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
         <v>7001</v>
       </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="12" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info_random[生物随机信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_info_random[生物随机信息] .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25035" windowHeight="8640"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfoRandom" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>角色创建-骷髅</t>
   </si>
   <si>
-    <t>人类</t>
+    <t>人类-普通</t>
   </si>
   <si>
     <t>骷髅</t>
@@ -777,13 +777,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1076,7 +1069,7 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
